--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/管理费用.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/管理费用.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>190.70897</v>
-      </c>
-      <c r="C2" t="n">
-        <v>460.17136</v>
-      </c>
-      <c r="D2" t="n">
-        <v>70.14672</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.36946</v>
-      </c>
-      <c r="F2" t="n">
-        <v>45.56605</v>
-      </c>
-      <c r="G2" t="n">
-        <v>414.69</v>
-      </c>
-      <c r="H2" t="n">
-        <v>58.04158</v>
-      </c>
-      <c r="I2" t="n">
-        <v>168.16109</v>
-      </c>
-      <c r="J2" t="n">
-        <v>59.04142</v>
-      </c>
-      <c r="K2" t="n">
-        <v>92.13231</v>
-      </c>
-      <c r="L2" t="n">
-        <v>19.75213</v>
-      </c>
-      <c r="M2" t="n">
-        <v>35.49543</v>
-      </c>
-      <c r="N2" t="n">
-        <v>275.07996</v>
-      </c>
-      <c r="O2" t="n">
-        <v>127.4436</v>
-      </c>
-      <c r="P2" t="n">
-        <v>42.79619</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>107.3966</v>
-      </c>
-      <c r="R2" t="n">
-        <v>27.97642</v>
-      </c>
-      <c r="S2" t="n">
-        <v>24.0144</v>
-      </c>
-      <c r="T2" t="n">
-        <v>45.4692</v>
-      </c>
-      <c r="U2" t="n">
-        <v>77.46218</v>
-      </c>
-      <c r="V2" t="n">
-        <v>20.71511</v>
-      </c>
-      <c r="W2" t="n">
-        <v>207.39425</v>
-      </c>
-      <c r="X2" t="n">
-        <v>239.78957</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>376.77626</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>289.66595</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>49.81446</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>180.27831</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>159.88059</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>251.88534</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>53.78347</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>5414.21714</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>85.64021</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>132.92808</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>258.53388</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>86.751</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>135.58384</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>121.2322</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>337.24975</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>12.7993</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>203.177</v>
-      </c>
-      <c r="C3" t="n">
-        <v>528.74379</v>
-      </c>
-      <c r="D3" t="n">
-        <v>80.37747</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.23498</v>
-      </c>
-      <c r="F3" t="n">
-        <v>47.36519</v>
-      </c>
-      <c r="G3" t="n">
-        <v>439.40845</v>
-      </c>
-      <c r="H3" t="n">
-        <v>40.80629</v>
-      </c>
-      <c r="I3" t="n">
-        <v>196.83327</v>
-      </c>
-      <c r="J3" t="n">
-        <v>64.61659</v>
-      </c>
-      <c r="K3" t="n">
-        <v>103.43048</v>
-      </c>
-      <c r="L3" t="n">
-        <v>20.89752</v>
-      </c>
-      <c r="M3" t="n">
-        <v>39.84223</v>
-      </c>
-      <c r="N3" t="n">
-        <v>293.53407</v>
-      </c>
-      <c r="O3" t="n">
-        <v>122.88418</v>
-      </c>
-      <c r="P3" t="n">
-        <v>41.78332</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>120.58712</v>
-      </c>
-      <c r="R3" t="n">
-        <v>28.78926</v>
-      </c>
-      <c r="S3" t="n">
-        <v>22.39012</v>
-      </c>
-      <c r="T3" t="n">
-        <v>51.10881</v>
-      </c>
-      <c r="U3" t="n">
-        <v>105.27195</v>
-      </c>
-      <c r="V3" t="n">
-        <v>22.24256</v>
-      </c>
-      <c r="W3" t="n">
-        <v>246.1112</v>
-      </c>
-      <c r="X3" t="n">
-        <v>282.80661</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>436.19986</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>325.32062</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>54.84148</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>184.52927</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>175.03365</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>242.43044</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>58.70177</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>5854.50094</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>90.76627999999999</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>140.15901</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>267.34898</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>33.1759</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>87.05459</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>131.59416</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>121.72847</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>346.52586</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>16.00633</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>230.67009</v>
-      </c>
-      <c r="C4" t="n">
-        <v>626.61966</v>
-      </c>
-      <c r="D4" t="n">
-        <v>91.96069</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.14637</v>
-      </c>
-      <c r="F4" t="n">
-        <v>53.00707</v>
-      </c>
-      <c r="G4" t="n">
-        <v>464.06445</v>
-      </c>
-      <c r="H4" t="n">
-        <v>43.33645</v>
-      </c>
-      <c r="I4" t="n">
-        <v>225.29448</v>
-      </c>
-      <c r="J4" t="n">
-        <v>72.04667999999999</v>
-      </c>
-      <c r="K4" t="n">
-        <v>118.90072</v>
-      </c>
-      <c r="L4" t="n">
-        <v>24.61546</v>
-      </c>
-      <c r="M4" t="n">
-        <v>44.76339</v>
-      </c>
-      <c r="N4" t="n">
-        <v>333.23677</v>
-      </c>
-      <c r="O4" t="n">
-        <v>120.72714</v>
-      </c>
-      <c r="P4" t="n">
-        <v>43.89414</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>133.17029</v>
-      </c>
-      <c r="R4" t="n">
-        <v>30.60154</v>
-      </c>
-      <c r="S4" t="n">
-        <v>22.33001</v>
-      </c>
-      <c r="T4" t="n">
-        <v>61.5038</v>
-      </c>
-      <c r="U4" t="n">
-        <v>130.99584</v>
-      </c>
-      <c r="V4" t="n">
-        <v>25.10696</v>
-      </c>
-      <c r="W4" t="n">
-        <v>316.00825</v>
-      </c>
-      <c r="X4" t="n">
-        <v>334.83363</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>548.33275</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>346.86208</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>63.62967</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>170.06406</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>174.88102</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>259.43982</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>64.78438</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>6563.81718</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>101.27308</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>155.16115</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>286.69954</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>33.92422</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>102.10331</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>141.30196</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>127.44384</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>376.6198</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>20.24675</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
